--- a/database-1/serviceclient_s_import.xlsx
+++ b/database-1/serviceclient_s_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annet_000\Source\Repos\FGOS_SPO\FGOS_SPO\Res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\DemoExam\database-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF75C6F-3E64-4C44-ACDA-53ADB75F680E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EF1E1-7DB6-417C-B6C4-A4CAEF4D2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09E48E93-7BA4-499A-9C86-00DA507E9FC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09E48E93-7BA4-499A-9C86-00DA507E9FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,6 +309,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -344,18 +347,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,9 +376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,1121 +675,1121 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="73.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>43785.472222222219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>43476.756944444445</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>43800.611111111109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>43507.5625</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>43718.763888888891</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>43508.819444444445</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>43559.381944444445</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>43600.388888888891</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>43481.597222222219</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>43481.375</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>43539.451388888891</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>43496.5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>43788.659722222219</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>43475.354166666664</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>43584.625</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>43750.368055555555</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>43509.75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>43497.75</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>43781.784722222219</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>43476.534722222219</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>43547.826388888891</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>43639.333333333336</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>43610.715277777781</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>43514.763888888891</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>43663.347222222219</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>43683.701388888891</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>43813.361111111109</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>43644.597222222219</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>43622.805555555555</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>43623.722222222219</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>43585.756944444445</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>43707.486111111109</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>43593.590277777781</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>43765.680555555555</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>43470.361111111109</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>43528.722222222219</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>43737.569444444445</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>43487.451388888891</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>43818.8125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>43784.743055555555</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>43650.715277777781</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>43683.493055555555</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>43778.541666666664</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>43512.784722222219</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>43527.722222222219</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>43607.673611111109</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>43677.756944444445</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>43706.791666666664</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>43740.423611111109</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>43540.479166666664</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>43704.486111111109</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>43629.479166666664</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <v>43695.666666666664</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>43825.6875</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>43796.784722222219</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>43714.805555555555</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>43732.569444444445</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>43525.493055555555</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>43736.416666666664</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>43544.444444444445</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>43796.479166666664</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>43488.770833333336</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>43759.430555555555</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>43688.534722222219</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>43468.611111111109</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>43830.354166666664</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <v>43706.423611111109</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>43468.784722222219</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="4">
         <v>43564.465277777781</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <v>43830.798611111109</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4">
         <v>43755.5625</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>43602.5625</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="4">
         <v>43792.777777777781</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>43656.645833333336</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <v>43625.569444444445</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <v>43474.430555555555</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4">
         <v>43692.770833333336</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <v>43661.590277777781</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="4">
         <v>43830.75</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <v>43821.388888888891</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4">
         <v>43827.666666666664</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4">
         <v>43642.423611111109</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="4">
         <v>43584.527777777781</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="4">
         <v>43568.375</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="4">
         <v>43470.666666666664</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <v>43549.763888888891</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4">
         <v>43778.784722222219</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <v>43562.444444444445</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4">
         <v>43780.784722222219</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>43471.625</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4">
         <v>43697.798611111109</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4">
         <v>43571.555555555555</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="4">
         <v>43821.631944444445</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <v>43487.701388888891</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4">
         <v>43712.340277777781</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <v>43466.618055555555</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4">
         <v>43494.6875</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4">
         <v>43652.479166666664</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4">
         <v>43804.430555555555</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <v>43560.555555555555</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -1793,6 +1798,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>